--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-2.905969466823055</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.563442341160963</v>
+        <v>-8.671545485725094</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.096423982027199</v>
+        <v>-3.062920779055222</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.442656297384403</v>
+        <v>-5.444436850570877</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.102287889129232</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.803555175278218</v>
+        <v>-8.919592255364437</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.198098805896044</v>
+        <v>-3.156111790682628</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.369601247527571</v>
+        <v>-5.374851260967104</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.372392557022142</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.624036702066348</v>
+        <v>-9.737795721458108</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.086303631930545</v>
+        <v>-3.037547896147957</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.250238722519555</v>
+        <v>-5.247580985042684</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.8341118822562082</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.39264652499556</v>
+        <v>-10.50474282192642</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.984654992667384</v>
+        <v>-2.943990300040983</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.451087740414474</v>
+        <v>-5.456298476945482</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4671286406093888</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.1723717130374</v>
+        <v>-11.28467748681373</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.830309834466275</v>
+        <v>-2.793507371178183</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.005438843984961</v>
+        <v>-5.00937962714032</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2786735059046084</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.82868885449313</v>
+        <v>-11.94632319552604</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.797173215973867</v>
+        <v>-2.761902552118257</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.15152275909294</v>
+        <v>-5.147490329817688</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.238296401866496</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.32254360998588</v>
+        <v>-12.44510065688727</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.677169168126605</v>
+        <v>-2.64185922736247</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.710744199320549</v>
+        <v>-4.705847678057743</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3213617281039089</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.30505547674321</v>
+        <v>-13.42148532591468</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.425273261451796</v>
+        <v>-2.386205829772085</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.629166060313754</v>
+        <v>-4.620983371037675</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4838965302488855</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.05180115392674</v>
+        <v>-14.16660755754583</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.402283177661725</v>
+        <v>-2.363071730650755</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.271890208065891</v>
+        <v>-4.249777308566215</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.6854050735713975</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.7520560637193</v>
+        <v>-14.86366794544501</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.220483460401517</v>
+        <v>-2.187778887902885</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.05646945710813</v>
+        <v>-4.036660802908599</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.8842406229934038</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.42281401520945</v>
+        <v>-15.52469831592376</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.198684776170043</v>
+        <v>-2.174490200518533</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.539205664134375</v>
+        <v>-3.518140148862038</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.042736169340788</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.3968289774225</v>
+        <v>-16.49592461763153</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.037950574182172</v>
+        <v>-2.00888566187354</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.895862994794798</v>
+        <v>-2.879536893151165</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.135047720676253</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.04327452253557</v>
+        <v>-17.13535268842143</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.748244096900457</v>
+        <v>-1.728343796581034</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.538704973272511</v>
+        <v>-2.515165012763087</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.146618028375889</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.95181487823715</v>
+        <v>-18.04038430696143</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.575163853332839</v>
+        <v>-1.563053473204242</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.93644595025027</v>
+        <v>-1.921730201856169</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.080082038367748</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.87423307495096</v>
+        <v>-18.95549699868955</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.403628501500544</v>
+        <v>-1.397750057524609</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.601152074473665</v>
+        <v>-1.563485519198019</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.9575132351261632</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.66697201201747</v>
+        <v>-19.74555201367351</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.154678362965123</v>
+        <v>-1.154560532239547</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.071607701434371</v>
+        <v>-1.034032792278617</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.8134173934131674</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.65973515189988</v>
+        <v>-20.72954331065196</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.054705538465702</v>
+        <v>-1.058567767804012</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7112158811101773</v>
+        <v>-0.6754084328380565</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.6930837156852668</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.50129528626319</v>
+        <v>-21.57065830671865</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9049034093506727</v>
+        <v>-0.9080717466383704</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3440160633082863</v>
+        <v>-0.3034822937103023</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.6389936110537976</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.15289919869589</v>
+        <v>-22.21987942003416</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6446546134628419</v>
+        <v>-0.6527063797105035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03401108894371225</v>
+        <v>0.06895444522827912</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6848516399510935</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.78445879547792</v>
+        <v>-22.84879437164216</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3417772795223511</v>
+        <v>-0.3516357835621708</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3459352041478358</v>
+        <v>0.3872021427049564</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.8541504092198783</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.4164766228594</v>
+        <v>-23.47920184577411</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06348729031862178</v>
+        <v>-0.08442188256254177</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3028222508900319</v>
+        <v>0.3541178934239146</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.148060819577272</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.9322478933092</v>
+        <v>-23.98651548858816</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05672623437410697</v>
+        <v>0.02770059897400028</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5581483409093737</v>
+        <v>0.6157544734129684</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.555361179334192</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.31951821136746</v>
+        <v>-24.37285625314465</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04059651727310046</v>
+        <v>0.009934344017778006</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4885496590027579</v>
+        <v>0.5465223759859209</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.048013736501149</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.59118349533328</v>
+        <v>-24.64346106058029</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3256552270460021</v>
+        <v>0.2991694983971903</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4786387857515713</v>
+        <v>0.5363889335864249</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.587310398829176</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.61164676467489</v>
+        <v>-24.65709014783852</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3408030214338792</v>
+        <v>0.3121701551190243</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3155348769493479</v>
+        <v>0.3779066076873309</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.1344942798985</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.59617166271597</v>
+        <v>-24.63162561881137</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1591604118077717</v>
+        <v>0.1301085918019816</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2935005312667229</v>
+        <v>0.3529264938653175</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.646428684843245</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.70919751314859</v>
+        <v>-24.74452054621557</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2706806474135944</v>
+        <v>0.2476512867149982</v>
       </c>
       <c r="G28" t="n">
-        <v>0.009083344333065811</v>
+        <v>0.06433286232514981</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.089197373923241</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.75952432527219</v>
+        <v>-24.7888641759405</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2115689000832012</v>
+        <v>0.1971804592601442</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07969556123667866</v>
+        <v>-0.03196102507574541</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.435417245292446</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.52747634970543</v>
+        <v>-24.56253753671558</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09263842106896159</v>
+        <v>0.07086592144317112</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2768132728217063</v>
+        <v>-0.2260151377958092</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.667648768525264</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.05396703282873</v>
+        <v>-24.09283807996581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08878928403349412</v>
+        <v>0.07039459854086899</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7292308898203923</v>
+        <v>-0.6896921352383796</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.78267234676146</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.14696165991351</v>
+        <v>-24.17432457285271</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1548137672643187</v>
+        <v>0.1337744365976649</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7729984582202826</v>
+        <v>-0.7491573747454995</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.783125749796476</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.71906592613738</v>
+        <v>-23.75458534374698</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06234283229320746</v>
+        <v>0.05131911330047411</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.229579427522637</v>
+        <v>-1.213606818055732</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.680005559155411</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.15980202564736</v>
+        <v>-23.18994050678902</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09799860060941171</v>
+        <v>-0.1029736756892676</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.300251678262275</v>
+        <v>-1.286923713969398</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.487702924880576</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.819690182425</v>
+        <v>-22.84697454154716</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2882428532025332</v>
+        <v>-0.2955614504910581</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.319602101862346</v>
+        <v>-1.310110182302095</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.221218470226153</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.09064529868349</v>
+        <v>-22.12132056424165</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4245468180877433</v>
+        <v>-0.4249657717786785</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.517060213321259</v>
+        <v>-1.514520306569964</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.89875817594252</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27409146274787</v>
+        <v>-21.31200677177751</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3603945341632855</v>
+        <v>-0.3604338110718107</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.649266287417008</v>
+        <v>-1.638923368172045</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.534278959978692</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.89877441718411</v>
+        <v>-20.93527575750684</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4113628691261251</v>
+        <v>-0.4171889438906932</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.897758195352969</v>
+        <v>-1.889025629357538</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.140541824831804</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24548159768482</v>
+        <v>-20.28122358444273</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2646505234817428</v>
+        <v>-0.2695732293502318</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.048791000935121</v>
+        <v>-2.040359557905049</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.72706423502908</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.94638793926559</v>
+        <v>-19.97314860627408</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5475620955886015</v>
+        <v>-0.5503245714882057</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.275602055365184</v>
+        <v>-2.265088936183278</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.298776002999127</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.40571510881083</v>
+        <v>-19.43959798856522</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2702540290980016</v>
+        <v>-0.2735271048084331</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.113139669402205</v>
+        <v>-2.107994394385406</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.862593703272737</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.85374362100366</v>
+        <v>-18.88299182555208</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.005239634975782507</v>
+        <v>-0.01601460021452306</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.076821621319257</v>
+        <v>-2.083734357219688</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.422969366774467</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.94765152593348</v>
+        <v>-17.98139039035661</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01655138463103383</v>
+        <v>-0.02540178135204065</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.96481697050829</v>
+        <v>-1.976325104706167</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.9870479076645102</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.61167685040911</v>
+        <v>-17.64736646795565</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03119624383274114</v>
+        <v>0.02242440092878467</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.168742679571015</v>
+        <v>-2.177841830046015</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.5642057460321114</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.10764937560834</v>
+        <v>-17.13530031921006</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002144423826950995</v>
+        <v>-0.008041387783911886</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.208726572449647</v>
+        <v>-2.2186898149122</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1631114492289913</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73411288323105</v>
+        <v>-16.75715533623249</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01468684994932457</v>
+        <v>0.01120429739342543</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.144456457799613</v>
+        <v>-2.15762731445839</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2025783617131589</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.05625890360068</v>
+        <v>-16.0874840458782</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01854907928763376</v>
+        <v>0.01945244818371286</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.43091604397658</v>
+        <v>-2.451575697860823</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5217485202313301</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.40877906656312</v>
+        <v>-15.43501604145794</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0170881690475446</v>
+        <v>-0.009455356490818301</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.362181454057518</v>
+        <v>-2.386114183652193</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7833820411365817</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.8712876656989</v>
+        <v>-14.89884696318073</v>
       </c>
       <c r="F49" t="n">
-        <v>0.138356742592269</v>
+        <v>0.1409752031606142</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.535942497372906</v>
+        <v>-2.569223131196574</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.9779777921661152</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.16779895710443</v>
+        <v>-14.19870988411375</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2841526270377305</v>
+        <v>0.2847286883627664</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.435668549908126</v>
+        <v>-2.485654962157836</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.101929299131142</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41050088383047</v>
+        <v>-13.42897412314015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.277868321673702</v>
+        <v>0.2825422737881982</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.498485418942728</v>
+        <v>-2.553826583054704</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.1515150827524</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82832545336744</v>
+        <v>-12.84022635665057</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3627849979051373</v>
+        <v>0.3654820122905328</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.510124476169023</v>
+        <v>-2.565491824886682</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.128957629610897</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17242726560264</v>
+        <v>-12.18999713601624</v>
       </c>
       <c r="F53" t="n">
-        <v>0.410022026558085</v>
+        <v>0.416803839430099</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.527733623491144</v>
+        <v>-2.585313571389055</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.038417909806064</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.7959842819945</v>
+        <v>-11.81269006042054</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3009500515836651</v>
+        <v>0.3058203882407872</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.62980121644524</v>
+        <v>-2.692408608634374</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.885877338459756</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34282040373383</v>
+        <v>-11.35719575225405</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05274617431022225</v>
+        <v>0.05718446497356738</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.089694538366552</v>
+        <v>-3.1609035735227</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.6817758370541064</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.88994455613568</v>
+        <v>-10.91196580951547</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1459764628461536</v>
+        <v>0.1480712313008297</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.157093713395758</v>
+        <v>-3.232007870256115</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4354412301004845</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.13567080481816</v>
+        <v>-10.15519142835518</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07650870396795506</v>
+        <v>0.08432480876446552</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.527134560914304</v>
+        <v>-3.597610427111315</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1590442794756452</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.833133870751556</v>
+        <v>-9.854277939840944</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09637515505703767</v>
+        <v>-0.09189758748516735</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.559564195053259</v>
+        <v>-3.630157891975846</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1361094882198875</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.292199194239961</v>
+        <v>-9.307412450142046</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.005187265764415603</v>
+        <v>-0.002385512956286224</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.848288749621844</v>
+        <v>-3.914719094240762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.439444945189343</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.922786777257818</v>
+        <v>-8.941731339469795</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.141190107684266</v>
+        <v>-0.1382312472420359</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.756839014272388</v>
+        <v>-3.826581711510262</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7409474276243092</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.397837802515969</v>
+        <v>-8.410917013054853</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1678853131785455</v>
+        <v>-0.1625305613162795</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.159453511261147</v>
+        <v>-4.229654439098483</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.033453628358766</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.879526625314876</v>
+        <v>-7.902359601470846</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.106587151273584</v>
+        <v>-0.1068489973304185</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.11433743566856</v>
+        <v>-4.184826394168413</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.310043739424385</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.396040973672774</v>
+        <v>-7.422264856264751</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1714071426429698</v>
+        <v>-0.1612867925463155</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.117191557688056</v>
+        <v>-4.188125654484527</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.565201757837833</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.04042784388581</v>
+        <v>-7.06560434225045</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3282529306868481</v>
+        <v>-0.3198607645653017</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.372164155530671</v>
+        <v>-4.433763440400992</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.793518113532732</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.667663797376186</v>
+        <v>-6.694777956561401</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2725320897924619</v>
+        <v>-0.2647028926931097</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.660705417859472</v>
+        <v>-4.717971150489181</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.989305862175592</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.42141067322616</v>
+        <v>-6.444348387804864</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3917636917720612</v>
+        <v>-0.3813814956185724</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.658571372496271</v>
+        <v>-4.711857045062096</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.147372700147169</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.254169596725951</v>
+        <v>-6.280118540958252</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4450362720350446</v>
+        <v>-0.4385817667340736</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.778850358703208</v>
+        <v>-4.826859833223817</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.262285135470847</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.977503053074596</v>
+        <v>-6.003386535792688</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4162332057832472</v>
+        <v>-0.4044763178313772</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.774948852456373</v>
+        <v>-4.823023788491192</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.328448974316049</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.847797608821616</v>
+        <v>-5.868483447311543</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6743479563078767</v>
+        <v>-0.6627088990815821</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.881402366862448</v>
+        <v>-4.922734766933777</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.340585272752288</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.601348100128964</v>
+        <v>-5.633555165119611</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6166370853815482</v>
+        <v>-0.6074724733923399</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.754616506143173</v>
+        <v>-4.788473201291876</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.294486225583166</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.47949803758102</v>
+        <v>-5.511207595063681</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7215326157494574</v>
+        <v>-0.7048399296262567</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.736221820650548</v>
+        <v>-4.764592840908568</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.188376948785163</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.454387000730589</v>
+        <v>-5.489343449317998</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8118302284488421</v>
+        <v>-0.7991437869952096</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.636969072807422</v>
+        <v>-4.663245324610767</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.023693528126616</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.485232466225696</v>
+        <v>-5.525818605035047</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8767811428466451</v>
+        <v>-0.8558072736942</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.455981078323402</v>
+        <v>-4.475475517254731</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.804697792948034</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.722517362929139</v>
+        <v>-5.761912102179893</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7672116603642397</v>
+        <v>-0.7483849288778376</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.34295522789078</v>
+        <v>-4.36214854385675</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.53857482412339</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.924492318868447</v>
+        <v>-5.962145781841252</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.100017998600916</v>
+        <v>-1.077826545284191</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.179864411391399</v>
+        <v>-4.198363835306758</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.23417839701917</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.455581583643065</v>
+        <v>-6.489320448066193</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.007743448172431</v>
+        <v>-0.9912209619861727</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.012885180948024</v>
+        <v>-4.029289836408707</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9019592538776203</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.924233656165492</v>
+        <v>-6.955759921408368</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.064367657962896</v>
+        <v>-1.050083955562573</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.932419887682776</v>
+        <v>-3.953446126046588</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.553305853948165</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.497885997478561</v>
+        <v>-7.533536338116581</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.165387866689655</v>
+        <v>-1.13941273785167</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.523481808421462</v>
+        <v>-3.550739982937936</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1996097476890978</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.927077869236025</v>
+        <v>-7.957766227097031</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.129750618354476</v>
+        <v>-1.10497998137793</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.310339118158161</v>
+        <v>-3.345243197534203</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1481149902580607</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.398911371348991</v>
+        <v>-8.429992498295249</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.310764797444181</v>
+        <v>-1.29217372740893</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.942262116065875</v>
+        <v>-2.978174302760729</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.480200358432549</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.34232962182093</v>
+        <v>-9.370556626747691</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.23482944096217</v>
+        <v>-1.213816294901199</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.915239603000552</v>
+        <v>-2.956532726163356</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.7884027369267212</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.17475132880072</v>
+        <v>-10.1955811826219</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.328675067731662</v>
+        <v>-1.307098952648498</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.742748513060811</v>
+        <v>-2.781855221649047</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.066337874103138</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.00819423540215</v>
+        <v>-11.02991436581658</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.440483334000003</v>
+        <v>-1.417899111598025</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.366515006298129</v>
+        <v>-2.407035683593271</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.309743009009454</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.22985010586646</v>
+        <v>-12.24381959299858</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.512530276538021</v>
+        <v>-1.492512145493022</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.264709259400867</v>
+        <v>-2.302899506790182</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.515660501207926</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.12287608270059</v>
+        <v>-13.13197523317559</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.614362208040967</v>
+        <v>-1.590102170875248</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.91672894217063</v>
+        <v>-1.959868080034117</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.682352354763533</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.31918525486331</v>
+        <v>-14.32182990003734</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.829861512815778</v>
+        <v>-1.800862062021354</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.677781323006288</v>
+        <v>-1.714073186483552</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.808967780322744</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42765816726089</v>
+        <v>-15.42307586126629</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.86848380619887</v>
+        <v>-1.841893339127324</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.261721030999075</v>
+        <v>-1.298340202047383</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.89514406948956</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.85257203934299</v>
+        <v>-16.83872038293644</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.900350471315631</v>
+        <v>-1.864071700141208</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.959995819708656</v>
+        <v>-0.9911031312605971</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.941035534872412</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.55392988592813</v>
+        <v>-18.52877957216918</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.124189573000622</v>
+        <v>-2.090319785549076</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.750322589698413</v>
+        <v>-0.7856979919767569</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.947702872216987</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.17141844050918</v>
+        <v>-20.14209168214371</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.346261213801979</v>
+        <v>-2.313923225782916</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4635356959504035</v>
+        <v>-0.4970258066195388</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.917083807250815</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.00159145475407</v>
+        <v>-21.96772166730252</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.561983087725099</v>
+        <v>-2.523347702039166</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6328846332081303</v>
+        <v>-0.659226346525683</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.850537484942998</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.72973615295338</v>
+        <v>-23.68899290650993</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.670138601500598</v>
+        <v>-2.62418461852614</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4556672219425262</v>
+        <v>-0.4798617975940359</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.747652315391198</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.8120014584157</v>
+        <v>-25.76907179739769</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.841110984310699</v>
+        <v>-2.798731200012032</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4524857923519867</v>
+        <v>-0.4741797381607268</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.605420470072015</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.08796738442136</v>
+        <v>-28.03637061892212</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.712858785673151</v>
+        <v>-2.670884862762577</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5869961117478804</v>
+        <v>-0.6090697343390306</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.42068243606924</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.36728493995451</v>
+        <v>-30.315792912878</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.200900558704173</v>
+        <v>-3.158298205257197</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9807994889241588</v>
+        <v>-0.991495900345849</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.182281462240699</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.55307108398635</v>
+        <v>-32.50009962668873</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.257799706854315</v>
+        <v>-3.21816930615241</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.202962775845408</v>
+        <v>-1.218961569917998</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.8924251792354514</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.77791156739507</v>
+        <v>-34.72469135634346</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.641364903208363</v>
+        <v>-3.590121629885848</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.441727102769967</v>
+        <v>-1.451651068323995</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.5299422624408427</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.27909128688411</v>
+        <v>-37.22867282864062</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.87897710748285</v>
+        <v>-3.836492584761449</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.877936448850596</v>
+        <v>-1.881261893772394</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1153556702079333</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.81627483918788</v>
+        <v>-39.76064564441339</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.765113349668358</v>
+        <v>-3.732421869472568</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.360898408379029</v>
+        <v>-2.358672716895935</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3900657681752963</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.37997030474616</v>
+        <v>-42.32766655489346</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.948523420178099</v>
+        <v>-3.91546535550274</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.730166810029913</v>
+        <v>-2.71967987545369</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.9211516404102587</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.61334696960768</v>
+        <v>-44.57496033767574</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.185611932338916</v>
+        <v>-4.153064467474385</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.34225815248629</v>
+        <v>-3.326717589013161</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.574133462755815</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.90768139650029</v>
+        <v>-46.88006972980708</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.328069279559737</v>
+        <v>-4.296398998985602</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.613177175190127</v>
+        <v>-3.604130393926495</v>
       </c>
     </row>
   </sheetData>
